--- a/projProb/minRiskPlotsFinal.xlsx
+++ b/projProb/minRiskPlotsFinal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miraj\Desktop\AI\MineSweeper\projProb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98DA18A2-2E15-4C77-88E5-D9A36F844D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB417CF-ADC4-4F8C-86E7-FC04CCB3DD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basicAgentRiskPerformance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">basicAgentRiskPerformance!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">basicAgentRiskPerformance!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">basicAgentRiskPerformance!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">basicAgentRiskPerformance!$D$2:$D$37</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">basicAgentRiskPerformance!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">basicAgentRiskPerformance!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">basicAgentRiskPerformance!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">basicAgentRiskPerformance!$D$2:$D$37</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -638,7 +638,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -675,27 +675,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -846,27 +882,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1041,7 +1113,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1073,7 +1145,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1095,14 +1167,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1158,7 +1224,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1190,7 +1256,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1212,14 +1278,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1885,6 +1945,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1969,7 +2034,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1980,7 +2045,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1993,11 +2058,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2010,7 +2075,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2026,7 +2091,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2070,20 +2135,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2092,13 +2157,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2110,30 +2175,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2173,23 +2239,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2236,14 +2301,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2294,8 +2353,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2333,20 +2392,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2359,6 +2418,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2390,7 +2460,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2399,14 +2469,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2427,20 +2496,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2454,17 +2522,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2472,14 +2529,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3359,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3408,7 +3459,7 @@
         <v>2.9</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D37" si="0">B5-C5</f>
+        <f t="shared" ref="D5:D37" si="0">B5-C5</f>
         <v>0.60000000000000009</v>
       </c>
     </row>

--- a/projProb/minRiskPlotsFinal.xlsx
+++ b/projProb/minRiskPlotsFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miraj\Desktop\AI\MineSweeper\projProb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB417CF-ADC4-4F8C-86E7-FC04CCB3DD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872FCE7A-8F28-4067-BC32-AAA038FFA847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,13 +35,13 @@
     <t>Mine Density</t>
   </si>
   <si>
-    <t>Average Cost (Min Risk)</t>
+    <t>Difference</t>
   </si>
   <si>
-    <t>Average Cost (Basic Agent)</t>
+    <t>Average Risk (Min Risk)</t>
   </si>
   <si>
-    <t>Difference</t>
+    <t>Average Risk (Basic Agent)</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mine Density vs. Average Cost</a:t>
+              <a:t>Mine Density vs. Average Risk</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -669,7 +669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Cost (Basic Agent)</c:v>
+                  <c:v>Average Risk (Basic Agent)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -876,7 +876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Cost (Min Risk)</c:v>
+                  <c:v>Average Risk (Min Risk)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,7 +1238,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Cost (Ovver 10 trials)</a:t>
+                  <a:t>Average Risk (Ovver 10 trials)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1469,6 +1469,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>basicAgentRiskPerformance!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -1508,164 +1520,143 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>basicAgentRiskPerformance!$A:$A</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>basicAgentRiskPerformance!$A$3:$A$1048576</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>basicAgentRiskPerformance!$D$2:$D$37</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>basicAgentRiskPerformance!$D$2:$D$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>basicAgentRiskPerformance!$D$4:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="1">
-                  <c:v>0.49999999999999978</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90000000000000036</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9</c:v>
+                  <c:v>12.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.399999999999999</c:v>
+                  <c:v>21.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.800000000000004</c:v>
+                  <c:v>22.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.700000000000003</c:v>
+                  <c:v>17.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.899999999999991</c:v>
+                  <c:v>17.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.300000000000011</c:v>
+                  <c:v>25.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.100000000000009</c:v>
+                  <c:v>16.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.900000000000006</c:v>
+                  <c:v>23.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.400000000000006</c:v>
+                  <c:v>16.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.700000000000003</c:v>
+                  <c:v>14.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.900000000000006</c:v>
+                  <c:v>12.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.599999999999994</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>1.0999999999999943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>basicAgentRiskPerformance!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Difference</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>basicAgentRiskPerformance!$A$2:$A$37</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="36"/>
-                      <c:pt idx="1">
-                        <c:v>0.05</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.39999999999999902</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.44999999999999901</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.499999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.54999999999999905</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.75</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.85</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DE19-49DC-BA82-00C1C07FB6CB}"/>
             </c:ext>
@@ -1832,7 +1823,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Avg Cost Min Risk Agent - Avg Cost Basic Agent</a:t>
+                  <a:t>Avg Risk Min Risk Agent - Avg Risk Basic Agent</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3078,15 +3069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3413,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
